--- a/inter-analysis-result/symbolic-execution-run-time-evaluation.xlsx
+++ b/inter-analysis-result/symbolic-execution-run-time-evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,59 +501,57 @@
           <t>block_pool_create</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>00:00:18</t>
-        </is>
+      <c r="B2" t="n">
+        <v>9</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>179</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9101</t>
+          <t>2598</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -563,24 +561,22 @@
           <t>block_pool_prioritize</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>00:00:08</t>
-        </is>
+      <c r="B3" t="n">
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -590,32 +586,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -625,49 +621,47 @@
           <t>timer_info_get</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>00:01:04</t>
-        </is>
+      <c r="B4" t="n">
+        <v>14</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>46269</t>
+          <t>11062</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>292</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -677,7 +671,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>292</t>
         </is>
       </c>
     </row>
@@ -687,24 +681,22 @@
           <t>mutex_create</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>00:00:12</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -714,22 +706,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>1756</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -739,7 +731,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -749,10 +741,8 @@
           <t>thread_reset</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>00:00:01</t>
-        </is>
+      <c r="B6" t="n">
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -761,7 +751,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -786,7 +776,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>386</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -811,24 +801,22 @@
           <t>queue_send_notify</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>00:00:02</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -838,22 +826,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>574</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -863,7 +851,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -873,59 +861,57 @@
           <t>semaphore_ceiling_put</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>00:01:28</t>
-        </is>
+      <c r="B8" t="n">
+        <v>36</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>995</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>308</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>306</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>308</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>62268</t>
+          <t>29669</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>653</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>342</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1310</t>
+          <t>656</t>
         </is>
       </c>
     </row>
@@ -935,59 +921,57 @@
           <t>timer_activate</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>00:00:04</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1059,59 +1043,57 @@
           <t>queue_front_send</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>00:12:20</t>
-        </is>
+      <c r="B11" t="n">
+        <v>206</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15590</t>
+          <t>5487</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4504</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4442</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4504</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>495879</t>
+          <t>162951</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10316</t>
+          <t>3611</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>5274</t>
+          <t>1876</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10321</t>
+          <t>3616</t>
         </is>
       </c>
     </row>
@@ -1121,10 +1103,8 @@
           <t>thread_relinquish</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1133,7 +1113,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>79</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1158,7 +1138,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>386</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1183,24 +1163,22 @@
           <t>event_flags_set_notify</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>00:00:02</t>
-        </is>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1210,22 +1188,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>574</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1235,7 +1213,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1245,59 +1223,57 @@
           <t>semaphore_delete</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>00:00:53</t>
-        </is>
+      <c r="B14" t="n">
+        <v>48</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>26394</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>27610</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
     </row>
@@ -1307,26 +1283,24 @@
           <t>queue_create</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>00:00:10</t>
-        </is>
+      <c r="B15" t="n">
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>2</t>
@@ -1334,22 +1308,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6033</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1359,7 +1333,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1369,59 +1343,57 @@
           <t>byte_release</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>00:00:38</t>
-        </is>
+      <c r="B16" t="n">
+        <v>32</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>154</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>448</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>448</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15066</t>
+          <t>13973</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>244</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1431,24 +1403,22 @@
           <t>thread_suspend</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>00:00:08</t>
-        </is>
+      <c r="B17" t="n">
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1458,32 +1428,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1493,59 +1463,57 @@
           <t>timer_create</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>00:01:00</t>
-        </is>
+      <c r="B18" t="n">
+        <v>14</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>133</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>143</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>37091</t>
+          <t>9531</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -1555,59 +1523,57 @@
           <t>queue_receive</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>00:26:50</t>
-        </is>
+      <c r="B19" t="n">
+        <v>978</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17012</t>
+          <t>11657</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12148</t>
+          <t>8374</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12125</t>
+          <t>8369</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12148</t>
+          <t>8374</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>974052</t>
+          <t>637962</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>15968</t>
+          <t>10963</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>694</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>15970</t>
+          <t>10965</t>
         </is>
       </c>
     </row>
@@ -1617,24 +1583,22 @@
           <t>semaphore_prioritize</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>00:00:07</t>
-        </is>
+      <c r="B20" t="n">
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1644,32 +1608,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1679,24 +1643,22 @@
           <t>thread_entry_exit_notify</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>00:00:01</t>
-        </is>
+      <c r="B21" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1706,22 +1668,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>598</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1731,7 +1693,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1741,59 +1703,57 @@
           <t>byte_pool_delete</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>00:00:54</t>
-        </is>
+      <c r="B22" t="n">
+        <v>47</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>26448</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>27640</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
     </row>
@@ -1803,59 +1763,57 @@
           <t>block_allocate</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="B23" t="n">
+        <v>8</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>121</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>117</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>121</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>5185</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1865,24 +1823,22 @@
           <t>queue_info_get</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>00:00:16</t>
-        </is>
+      <c r="B24" t="n">
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1892,22 +1848,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11279</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1917,7 +1873,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -1927,59 +1883,57 @@
           <t>event_flags_set</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>00:09:00</t>
-        </is>
+      <c r="B25" t="n">
+        <v>266</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8678</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2723</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2703</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2723</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>322746</t>
+          <t>169306</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5275</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>5277</t>
+          <t>2663</t>
         </is>
       </c>
     </row>
@@ -1989,24 +1943,22 @@
           <t>event_flags_info_get</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>00:00:08</t>
-        </is>
+      <c r="B26" t="n">
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2016,22 +1968,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>6149</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2041,7 +1993,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2051,59 +2003,57 @@
           <t>block_release</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>00:00:50</t>
-        </is>
+      <c r="B27" t="n">
+        <v>29</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>350</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>312</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>310</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>312</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>29265</t>
+          <t>18697</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>330</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>331</t>
         </is>
       </c>
     </row>
@@ -2113,24 +2063,22 @@
           <t>thread_preemption_change</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>00:00:06</t>
-        </is>
+      <c r="B28" t="n">
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>87</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2140,32 +2088,32 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -2175,24 +2123,22 @@
           <t>mutex_info_get</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>00:00:16</t>
-        </is>
+      <c r="B29" t="n">
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2202,22 +2148,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11263</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2227,7 +2173,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -2237,24 +2183,22 @@
           <t>semaphore_info_get</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>00:00:09</t>
-        </is>
+      <c r="B30" t="n">
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2264,22 +2208,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>6109</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2289,7 +2233,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2299,24 +2243,22 @@
           <t>queue_flush</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>00:00:51</t>
-        </is>
+      <c r="B31" t="n">
+        <v>45</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>441</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2326,32 +2268,32 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>429</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>441</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>25035</t>
+          <t>23347</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>529</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -2361,24 +2303,22 @@
           <t>thread_info_get</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>00:00:57</t>
-        </is>
+      <c r="B32" t="n">
+        <v>13</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2388,22 +2328,22 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>41387</t>
+          <t>9883</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>260</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2413,7 +2353,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>260</t>
         </is>
       </c>
     </row>
@@ -2423,59 +2363,57 @@
           <t>semaphore_put</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>00:01:24</t>
-        </is>
+      <c r="B33" t="n">
+        <v>39</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>991</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>307</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>305</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>307</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>59339</t>
+          <t>28206</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>649</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>342</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>652</t>
         </is>
       </c>
     </row>
@@ -2485,59 +2423,57 @@
           <t>mutex_get</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="B34" t="n">
+        <v>323</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>199</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>214061</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>714</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2642</t>
         </is>
       </c>
     </row>
@@ -2547,24 +2483,22 @@
           <t>queue_prioritize</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>00:00:06</t>
-        </is>
+      <c r="B35" t="n">
+        <v>6</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2574,32 +2508,32 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -2609,24 +2543,22 @@
           <t>timer_delete</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>00:00:06</t>
-        </is>
+      <c r="B36" t="n">
+        <v>3</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2636,22 +2568,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2661,7 +2593,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -2673,57 +2605,57 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>00:08:18</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4659</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>292973</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -2733,24 +2665,22 @@
           <t>semaphore_put_notify</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>00:00:02</t>
-        </is>
+      <c r="B38" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2760,22 +2690,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>574</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2785,7 +2715,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2795,24 +2725,22 @@
           <t>semaphore_create</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>00:00:07</t>
-        </is>
+      <c r="B39" t="n">
+        <v>2</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2822,22 +2750,22 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3735</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2847,7 +2775,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -2857,24 +2785,22 @@
           <t>byte_pool_create</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>00:00:10</t>
-        </is>
+      <c r="B40" t="n">
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2884,22 +2810,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5737</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2909,7 +2835,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -2919,24 +2845,22 @@
           <t>thread_time_slice_change</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>00:00:02</t>
-        </is>
+      <c r="B41" t="n">
+        <v>0</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2946,22 +2870,22 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>381</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2971,220 +2895,212 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>semaphore_get</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>00:00:34</t>
-        </is>
+          <t>test_6</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>156</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>894</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>887</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>894</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>20935</t>
+          <t>92955</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1334</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>event_flags_get</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>00:03:00</t>
-        </is>
+          <t>semaphore_get</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>12</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>148</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>142</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>148</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>95913</t>
+          <t>8637</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>116</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>block_pool_info_get</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>00:00:17</t>
-        </is>
+          <t>event_flags_get</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>41</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>341</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>320</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>341</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>11279</t>
+          <t>24804</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>297</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>timer_change</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>00:00:02</t>
-        </is>
+          <t>block_pool_info_get</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3194,22 +3110,22 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3219,220 +3135,212 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>event_flags_delete</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>00:00:54</t>
-        </is>
+          <t>timer_change</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>27640</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>queue_send</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>00:12:09</t>
-        </is>
+          <t>event_flags_delete</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>47</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>15656</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>406</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4444</t>
+          <t>394</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>406</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>497753</t>
+          <t>26448</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>10376</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>529</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>10381</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>event_flags_create</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>00:00:06</t>
-        </is>
+          <t>queue_send</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>217</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>5470</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1532</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1532</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>162055</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3604</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>byte_pool_prioritize</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>00:00:08</t>
-        </is>
+          <t>event_flags_create</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3442,59 +3350,57 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>1774</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>byte_pool_info_get</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>00:00:16</t>
-        </is>
+          <t>byte_pool_prioritize</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3504,493 +3410,479 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>11271</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>block_pool_delete</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>00:00:54</t>
-        </is>
+          <t>byte_pool_info_get</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>27640</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>queue_delete</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>00:00:54</t>
-        </is>
+          <t>block_pool_delete</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>26448</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>27610</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>thread_create</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>00:02:53</t>
-        </is>
+          <t>queue_delete</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>46</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>406</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>394</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>406</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>101533</t>
+          <t>26394</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>529</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mutex_put</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>thread_create</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>134</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>894</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>887</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>894</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>92955</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1334</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>thread_delete</t>
+          <t>mutex_put</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3339</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>thread_wait_abort</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>00:01:07</t>
-        </is>
+          <t>thread_delete</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>41431</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mutex_prioritize</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>00:00:06</t>
-        </is>
+          <t>thread_wait_abort</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>29</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>287</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>283</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>287</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>19912</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>309</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>32</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>311</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>byte_allocate</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>00:00:24</t>
-        </is>
+          <t>mutex_prioritize</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4000,218 +3892,272 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10579</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>timer_deactivate</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>00:00:11</t>
-        </is>
+          <t>byte_allocate</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>18</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>223</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>344</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>344</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>344</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>7087</t>
+          <t>7793</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>thread_resume</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>00:00:49</t>
-        </is>
+          <t>timer_deactivate</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>92</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>92</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>30663</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>71</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>thread_resume</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>21</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>14806</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>thread_terminate</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>00:01:21</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>615</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>354</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>354</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>354</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>44463</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>499</t>
+      <c r="B62" t="n">
+        <v>36</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>21530</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>251</t>
         </is>
       </c>
     </row>
